--- a/data/trans_dic/P08_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P08_2_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1151114587742421</v>
+        <v>0.1139791686435333</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1369101403326388</v>
+        <v>0.1304928109012116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1317268012184212</v>
+        <v>0.1304068338604882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1450893369350963</v>
+        <v>0.146949245651612</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2025112942690099</v>
+        <v>0.2007800225993869</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2353507551420096</v>
+        <v>0.236112916313885</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2198779733920964</v>
+        <v>0.2211505599694568</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2013499646384385</v>
+        <v>0.2007632488717928</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1660620034753582</v>
+        <v>0.1666415527546439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.191898931649038</v>
+        <v>0.1947808978014199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1826080182186008</v>
+        <v>0.1818189988297197</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.179585293142197</v>
+        <v>0.1816787263795941</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1627473069449098</v>
+        <v>0.1651597589694942</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1952670020114058</v>
+        <v>0.1927725155959582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1874016407756437</v>
+        <v>0.1838481280259507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2033158352394915</v>
+        <v>0.2046395170849708</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2650689858141118</v>
+        <v>0.2626132214904187</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3044251283645907</v>
+        <v>0.3038503041509634</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2895481377389669</v>
+        <v>0.2905608624679669</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2467185590094954</v>
+        <v>0.2460223670871896</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2056108166348387</v>
+        <v>0.2065907790387378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2372274609037496</v>
+        <v>0.2390167330283465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2274837218986369</v>
+        <v>0.2268934003506306</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2173598805326006</v>
+        <v>0.216849322642348</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2423463676758986</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2238566043892743</v>
+        <v>0.2238566043892744</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1786972245494142</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1104590139761587</v>
+        <v>0.1099756282725377</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1408008936387997</v>
+        <v>0.1416702043052583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1209955759930191</v>
+        <v>0.1225877929912534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1019680487342842</v>
+        <v>0.1021890372099098</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2012722717896495</v>
+        <v>0.2032443401552367</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2238273916668655</v>
+        <v>0.2276485002432488</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2157594483463707</v>
+        <v>0.2177041753793512</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2035147294207462</v>
+        <v>0.2061500377560461</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1617486276642477</v>
+        <v>0.1613572047907792</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1917406862161956</v>
+        <v>0.189891658188912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1742978183177044</v>
+        <v>0.1760204344295914</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1570102151774593</v>
+        <v>0.1592607026913824</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1522739045521293</v>
+        <v>0.1519243792838142</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1894576391216664</v>
+        <v>0.1912044218501323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1673558281241687</v>
+        <v>0.1650365640362007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408934151103219</v>
+        <v>0.1429805902803083</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2565316442977028</v>
+        <v>0.2571541040640989</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.28177847760848</v>
+        <v>0.2850681776815384</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2716491657227554</v>
+        <v>0.2716677760310425</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2436718460627472</v>
+        <v>0.2443807918645636</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1953639494309881</v>
+        <v>0.1964964749409124</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2283281351783495</v>
+        <v>0.227311563325287</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2103315936585705</v>
+        <v>0.212980004479935</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1857886870758851</v>
+        <v>0.1870908134159478</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1779486013908333</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1962277779298746</v>
+        <v>0.1962277779298747</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1281402838619427</v>
+        <v>0.1274512545772683</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1012693447854936</v>
+        <v>0.1034509982122193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1135709130694902</v>
+        <v>0.1146445583496134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1470795050295014</v>
+        <v>0.1468344552957961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2155390180923453</v>
+        <v>0.2164876881740741</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2000602564971646</v>
+        <v>0.2020484382707327</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1873234602588856</v>
+        <v>0.1846236089493497</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1974422051278885</v>
+        <v>0.1946513924401018</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1813741472621328</v>
+        <v>0.182819153564029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1599884380903312</v>
+        <v>0.1588523864581221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1590368158995546</v>
+        <v>0.1579275799608129</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1779138237052246</v>
+        <v>0.1778598471460786</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1863432494707851</v>
+        <v>0.18279745125702</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1550353460330704</v>
+        <v>0.154611146446939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1675955089437938</v>
+        <v>0.1672301772613523</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2043899916566665</v>
+        <v>0.1997756751529858</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2828040725639701</v>
+        <v>0.279524720026945</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2644658162162281</v>
+        <v>0.2637022084200918</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2497696918352683</v>
+        <v>0.246409093016744</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2440106309507377</v>
+        <v>0.2428404996569157</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2241603943170513</v>
+        <v>0.2246343447725812</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2020826913939358</v>
+        <v>0.2004929977397375</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2001469696901875</v>
+        <v>0.1989081349129789</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2156762565492426</v>
+        <v>0.2125038354579016</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2075850249283518</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2400213945248197</v>
+        <v>0.2400213945248196</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1850880975716409</v>
@@ -1105,7 +1105,7 @@
         <v>0.1773077033078835</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1965108822143016</v>
+        <v>0.1965108822143015</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1190613028407542</v>
+        <v>0.1186206316136547</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1410763447097056</v>
+        <v>0.1414555554794351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1209819526486587</v>
+        <v>0.1235243757758013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1278836627002111</v>
+        <v>0.1272886393102599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1997655056435833</v>
+        <v>0.2033984556310557</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2473466988088786</v>
+        <v>0.2481881098651718</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1813863316600528</v>
+        <v>0.1782911002328451</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.21802443471579</v>
+        <v>0.2191975572828877</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1675794547016684</v>
+        <v>0.165228620590016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2007669924483576</v>
+        <v>0.203797611589107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1600849030934326</v>
+        <v>0.1600837257120106</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1816623024661791</v>
+        <v>0.1803362340594503</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1607988744645359</v>
+        <v>0.1607373613562805</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1897225753369378</v>
+        <v>0.1916552228477379</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1680629592802177</v>
+        <v>0.168706356681819</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1708543805643153</v>
+        <v>0.1703136814174708</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2529841428247802</v>
+        <v>0.2581732769119486</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3019696801622652</v>
+        <v>0.3033671177469451</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2367937506896736</v>
+        <v>0.2342075042281262</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2616157770731669</v>
+        <v>0.2607461468614062</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2032217059440385</v>
+        <v>0.2024619682594209</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2388420144508879</v>
+        <v>0.2409832791484234</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1962568063563154</v>
+        <v>0.196046581083874</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2129188878437553</v>
+        <v>0.2119191603617844</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1273777890994579</v>
+        <v>0.127714919808469</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1438958638040109</v>
+        <v>0.1425515738319594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1338623772085473</v>
+        <v>0.1322966789401519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1386707976300339</v>
+        <v>0.1379379976156654</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2178241037258363</v>
+        <v>0.2189875611942221</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2433461184239743</v>
+        <v>0.2427851111651073</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2140080886580599</v>
+        <v>0.2135107452097412</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.216272357980869</v>
+        <v>0.2157369491859938</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1776327792959622</v>
+        <v>0.1775911393211849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1976609759753816</v>
+        <v>0.1976599241916807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1774476711709526</v>
+        <v>0.1786152372698099</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1820485703612763</v>
+        <v>0.1816274771408682</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1509213567591329</v>
+        <v>0.1524888260898279</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1704702814921175</v>
+        <v>0.1688621731643159</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1572996235297118</v>
+        <v>0.1567460727131439</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1614587830849824</v>
+        <v>0.1622479313802517</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2463302260934824</v>
+        <v>0.2473780541870226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2734786973106867</v>
+        <v>0.2727064119205808</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2438195875616229</v>
+        <v>0.2436988187748747</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2377961938187506</v>
+        <v>0.239645876074715</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1964319400959227</v>
+        <v>0.1960979880861581</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2177036969496329</v>
+        <v>0.2179966665043616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1984322196386675</v>
+        <v>0.1966793085768688</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1982049511783559</v>
+        <v>0.1977842460381796</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>79889</v>
+        <v>79103</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>96312</v>
+        <v>91798</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>88889</v>
+        <v>87999</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>100215</v>
+        <v>101499</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>139399</v>
+        <v>138207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>164051</v>
+        <v>164583</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>147942</v>
+        <v>148799</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>147827</v>
+        <v>147396</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>229558</v>
+        <v>230359</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>268758</v>
+        <v>272794</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>246090</v>
+        <v>245026</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>255889</v>
+        <v>258872</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>112949</v>
+        <v>114623</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>137364</v>
+        <v>135609</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>126459</v>
+        <v>124061</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>140432</v>
+        <v>141347</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>182461</v>
+        <v>180770</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>212200</v>
+        <v>211799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>194819</v>
+        <v>195501</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>181136</v>
+        <v>180625</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>284229</v>
+        <v>285583</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>332242</v>
+        <v>334747</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>306566</v>
+        <v>305770</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>309714</v>
+        <v>308986</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>106239</v>
+        <v>105775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>143328</v>
+        <v>144213</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>123710</v>
+        <v>125338</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>106956</v>
+        <v>107188</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>194911</v>
+        <v>196820</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>230788</v>
+        <v>234728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>225018</v>
+        <v>227047</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>217931</v>
+        <v>220753</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>312206</v>
+        <v>311451</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>392885</v>
+        <v>389096</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>359985</v>
+        <v>363543</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>332823</v>
+        <v>337594</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>146457</v>
+        <v>146121</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>192858</v>
+        <v>194636</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>171110</v>
+        <v>168738</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>147785</v>
+        <v>149975</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>248423</v>
+        <v>249026</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>290541</v>
+        <v>293933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>283306</v>
+        <v>283326</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>260933</v>
+        <v>261692</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>377090</v>
+        <v>379276</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>467854</v>
+        <v>465771</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>434407</v>
+        <v>439877</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>393826</v>
+        <v>396587</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>86944</v>
+        <v>86477</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>76724</v>
+        <v>78377</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>86263</v>
+        <v>87079</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>117987</v>
+        <v>117790</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>147394</v>
+        <v>148043</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>155482</v>
+        <v>157027</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>147051</v>
+        <v>144932</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>160374</v>
+        <v>158107</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>247095</v>
+        <v>249064</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>245550</v>
+        <v>243806</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>245642</v>
+        <v>243929</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>287234</v>
+        <v>287147</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>126436</v>
+        <v>124030</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>117458</v>
+        <v>117137</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>127298</v>
+        <v>127020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>163961</v>
+        <v>160260</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>193393</v>
+        <v>191150</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>205536</v>
+        <v>204943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>196072</v>
+        <v>193434</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>198200</v>
+        <v>197249</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>305385</v>
+        <v>306031</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>310156</v>
+        <v>307716</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>309140</v>
+        <v>307226</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>348200</v>
+        <v>343078</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>112182</v>
+        <v>111767</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>133150</v>
+        <v>133508</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>113429</v>
+        <v>115812</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>126613</v>
+        <v>126024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>207479</v>
+        <v>211252</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>260184</v>
+        <v>261069</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>189327</v>
+        <v>186097</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>243853</v>
+        <v>245165</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>331947</v>
+        <v>327290</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>400675</v>
+        <v>406723</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>317184</v>
+        <v>317181</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>383040</v>
+        <v>380244</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>151508</v>
+        <v>151450</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>179064</v>
+        <v>180888</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157570</v>
+        <v>158174</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169156</v>
+        <v>168621</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>262752</v>
+        <v>268142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>317642</v>
+        <v>319112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>247160</v>
+        <v>244461</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>292608</v>
+        <v>291635</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>402548</v>
+        <v>401044</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>476662</v>
+        <v>480935</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>388853</v>
+        <v>388436</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>448945</v>
+        <v>446837</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>417359</v>
+        <v>418463</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>492535</v>
+        <v>487934</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>454376</v>
+        <v>449061</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>489770</v>
+        <v>487182</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>736071</v>
+        <v>740002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>865636</v>
+        <v>863641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>758561</v>
+        <v>756798</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>807938</v>
+        <v>805938</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1182278</v>
+        <v>1182001</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1379689</v>
+        <v>1379682</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1231290</v>
+        <v>1239392</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1323061</v>
+        <v>1320001</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>494500</v>
+        <v>499636</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>583496</v>
+        <v>577991</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>533930</v>
+        <v>532051</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>570254</v>
+        <v>573042</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>832398</v>
+        <v>835939</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>972824</v>
+        <v>970077</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>864229</v>
+        <v>863801</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>888345</v>
+        <v>895255</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1307400</v>
+        <v>1305177</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1519589</v>
+        <v>1521634</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1376900</v>
+        <v>1364736</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1440480</v>
+        <v>1437423</v>
       </c>
     </row>
     <row r="24">
